--- a/biology/Botanique/Rubus/Rubus.xlsx
+++ b/biology/Botanique/Rubus/Rubus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ronce
 Rubus L. (Les Ronces) est un genre de plantes à fleurs de la famille des Rosacées, qui comprend des plantes ligneuses appelées « ronce », mais aussi framboisier, plaquebière ou parfois mûre dans le langage usuel, à ne pas confondre avec les mûriers (Morus). Ces plantes épineuses sont assez communes dans l'hémisphère nord, mais la détermination des espèces est difficile et varie notablement selon les auteurs, certains en comptant plus de mille. Il existe en outre de nombreux hybrides.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vernaculaire « ronce » vient du latin rumex, rumicis qui signifie « dard » (allusion à la présence d'aiguillons, et non d'épines, sur les rameaux). C'est l'un des noms, dans cette langue, de la ronce commune. Le nom scientifique Rubus provient du latin ruber, « rouge », pour la couleur des fruits (voire de leur jus) ou des feuilles à l'automne de certaines espèces, tels les framboisiers[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vernaculaire « ronce » vient du latin rumex, rumicis qui signifie « dard » (allusion à la présence d'aiguillons, et non d'épines, sur les rameaux). C'est l'un des noms, dans cette langue, de la ronce commune. Le nom scientifique Rubus provient du latin ruber, « rouge », pour la couleur des fruits (voire de leur jus) ou des feuilles à l'automne de certaines espèces, tels les framboisiers.
 </t>
         </is>
       </c>
@@ -546,17 +560,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Les ronces sont généralement des arbrisseaux à port sarmenteux à souche vivace ligneuse, portant des aiguillons crochus ou des acicules droits. Le manteau d’aiguillons plus ou moins dense sur les rameaux joue deux rôles principaux : la protection et la conquête de l’espace. Le pied de la ronce produit des turions donnant des tiges bisannuelles lignifiées, dressées ou retombantes[2]. Ils forment des fourrés appelés « ronciers » où peuvent s'entremêler plusieurs sous-espèces locales et hybrides naturels qui sont l'affaire de spécialistes, les « rubologues »[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ronces sont généralement des arbrisseaux à port sarmenteux à souche vivace ligneuse, portant des aiguillons crochus ou des acicules droits. Le manteau d’aiguillons plus ou moins dense sur les rameaux joue deux rôles principaux : la protection et la conquête de l’espace. Le pied de la ronce produit des turions donnant des tiges bisannuelles lignifiées, dressées ou retombantes. Ils forment des fourrés appelés « ronciers » où peuvent s'entremêler plusieurs sous-espèces locales et hybrides naturels qui sont l'affaire de spécialistes, les « rubologues ».
 Les ronces sont volontiers classées parmi les mauvaises herbes ou adventices.
-Les feuilles composées imparipennées ont 3, 5 ou 7 folioles grossièrement dentées et des stipules sont soudées à leurs pétioles. Leur face supérieure est d'un vert soutenu, leur face inférieure blanchâtre (à l'exception de Rubus caesius qui est verte) avec de forts aiguillons sous la nervure principale[4].
-Lorsque la tige est herbacée (ronce des rochers), la plante se propage par stolons. Lorsqu'elle est ligneuse, sa multiplication végétative est assurée par des drageons. Il est plus exact de parler de tiges radicantes car les rameaux rampants des ronces qui s'enracinent de place en place, ne se séparent pas de la plante mère, contrairement aux stolons et drageons[5].
-Appareil reproducteur
-L'inflorescence est isolée ou en cyme racémiforme. Leurs fleurs, caractéristiques des Rosaceae, sont blanches, roses ou rouges. Les espèces sont hermaphrodites, à l'exception de Rubus chamaemorus dioïque. Elles ont 5 pétales, 5 sépales et de nombreuses étamines[6].
-La fructification se produit généralement sur les rameaux de deux ans. Les fruits, charnus, composés, formés de l'agglomération de petites drupes (drupéoles plus ou moins concrescentes qui correspondent aux carpelles d'un fruit charnu apocarpe et contiennent un noyau) sur un réceptacle floral parenchymateux prolongé et formant un gynophore. Ils sont comestibles et appelés « mûres » ou « mûrons » à cause de leur ressemblance avec le fruit du mûrier. Les fruits les plus parfumés sont obtenus en sol sec et caillouteux et sont généralement issus des variétés épineuses.
-Multiplication
-La multiplication de la ronce peut se faire par semis, stolons, marcottage, drageons et bouturage.
-Les mûres sont appréciées de nombreux oiseaux comme la grive, le merle noir, ou encore la fauvette à tête noire mais surtout du renard roux : il en est si friand qu’il en fait une grande consommation et contribue ainsi à propager l'espèce. Les capacités germinatives des graines de mûres sont relativement faibles : autour de 20 % de réussite en temps ordinaire. Cependant, si les graines passent dans l’intestin du renard, elles se trouvent ainsi dopées et alors 35 % d’entre elles donneront naissance à des plantules de ronce.
+Les feuilles composées imparipennées ont 3, 5 ou 7 folioles grossièrement dentées et des stipules sont soudées à leurs pétioles. Leur face supérieure est d'un vert soutenu, leur face inférieure blanchâtre (à l'exception de Rubus caesius qui est verte) avec de forts aiguillons sous la nervure principale.
+Lorsque la tige est herbacée (ronce des rochers), la plante se propage par stolons. Lorsqu'elle est ligneuse, sa multiplication végétative est assurée par des drageons. Il est plus exact de parler de tiges radicantes car les rameaux rampants des ronces qui s'enracinent de place en place, ne se séparent pas de la plante mère, contrairement aux stolons et drageons.
 </t>
         </is>
       </c>
@@ -582,17 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leur importance économique est assez limitée, à l'exception du framboisier (Rubus idaeus) et moindrement du mûrier sauvage ou ronce commune, qui appartiennent aussi à ce genre et sont appréciés pour leurs fruits (frais ou en confiture ou jus).
-On appelle « ronce artificielle » les fils de fer barbelés utilisés pour faire des clôtures difficilement franchissables.
-Plante pionnière
-Comme plante pionnière qui s'accomode de sols appauvris ou bien très riches en azote, la ronce peut jouer un rôle de serre de germination pour le chêne ou le hêtre. Ses racines préparent le sol et la décomposition de ses feuilles fournit un humus riche en rééquilibrant le sol[7]. Elle accueille de nombreux oiseaux et petits mammifères, pour lesquels elle fournit habitat et ressource alimentaire. Elle est utile pour les pollinisateurs en raison de sa longue floraison[7].
-Production
-La production de fruits peut être importante : jusqu’à 20 tonnes à l’hectare dans les conditions idéales de culture[réf. souhaitée].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est isolée ou en cyme racémiforme. Leurs fleurs, caractéristiques des Rosaceae, sont blanches, roses ou rouges. Les espèces sont hermaphrodites, à l'exception de Rubus chamaemorus dioïque. Elles ont 5 pétales, 5 sépales et de nombreuses étamines.
+La fructification se produit généralement sur les rameaux de deux ans. Les fruits, charnus, composés, formés de l'agglomération de petites drupes (drupéoles plus ou moins concrescentes qui correspondent aux carpelles d'un fruit charnu apocarpe et contiennent un noyau) sur un réceptacle floral parenchymateux prolongé et formant un gynophore. Ils sont comestibles et appelés « mûres » ou « mûrons » à cause de leur ressemblance avec le fruit du mûrier. Les fruits les plus parfumés sont obtenus en sol sec et caillouteux et sont généralement issus des variétés épineuses.
 </t>
         </is>
       </c>
@@ -618,10 +633,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Multiplication</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La multiplication de la ronce peut se faire par semis, stolons, marcottage, drageons et bouturage.
+Les mûres sont appréciées de nombreux oiseaux comme la grive, le merle noir, ou encore la fauvette à tête noire mais surtout du renard roux : il en est si friand qu’il en fait une grande consommation et contribue ainsi à propager l'espèce. Les capacités germinatives des graines de mûres sont relativement faibles : autour de 20 % de réussite en temps ordinaire. Cependant, si les graines passent dans l’intestin du renard, elles se trouvent ainsi dopées et alors 35 % d’entre elles donneront naissance à des plantules de ronce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur importance économique est assez limitée, à l'exception du framboisier (Rubus idaeus) et moindrement du mûrier sauvage ou ronce commune, qui appartiennent aussi à ce genre et sont appréciés pour leurs fruits (frais ou en confiture ou jus).
+On appelle « ronce artificielle » les fils de fer barbelés utilisés pour faire des clôtures difficilement franchissables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plante pionnière</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme plante pionnière qui s'accomode de sols appauvris ou bien très riches en azote, la ronce peut jouer un rôle de serre de germination pour le chêne ou le hêtre. Ses racines préparent le sol et la décomposition de ses feuilles fournit un humus riche en rééquilibrant le sol. Elle accueille de nombreux oiseaux et petits mammifères, pour lesquels elle fournit habitat et ressource alimentaire. Elle est utile pour les pollinisateurs en raison de sa longue floraison.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production de fruits peut être importante : jusqu’à 20 tonnes à l’hectare dans les conditions idéales de culture[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Les chenilles de papillons de nuit (hétérocères) suivants (classés par famille) se nourrissent de ronce :
 zeuzère du poirier (Cossidae),
@@ -632,31 +795,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rubus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rubus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut citer 9 espèces indigènes courantes en Europe :
 le framboisier (Rubus idaeus),
@@ -669,7 +834,7 @@
 la ronce à feuilles d’orme (Rubus ulmifolius),
 la ronce tomenteuse (Rubus canescens) synonyme : (Rubus tomentosus).
 Liste d'espèces selon GRIN
-Selon GRIN            (22 septembre 2015)[8] :
+Selon GRIN            (22 septembre 2015) :
 Rubus abactus L. H. Bailey
 Rubus aboriginum Rydb.
 Rubus acanthophyllos Focke
@@ -1061,35 +1226,73 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Rubus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rubus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Classification systématique</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude taxonomique des taxons rattachés au genre Rubus est une spécialité nommée "batologie" (du grec βάτος / bátos, la ronce).
 Le genre Rubus compte 13 sous-genres. Le sous-genre Rubus est lui-même subdivisé en 12 sections. On peut également citer 2 notho-sous-genres, c'est-à-dire des sous-genres hybrides.[réf. nécessaire]
-Sous-genre Anoplobatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-genre Anoplobatus</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus odoratus
 Rubus koehleri
 Rubus parviflorus
@@ -1097,17 +1300,159 @@
 Rubus aboriginum
 Rubus deliciosus
 Rubus neomexicanus
-Sous-genre Chamaebatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-genre Chamaebatus</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus hayata-koidzumii
 Rubus calycinus
 Rubus nivalis
 Rubus pectinellus
-Sous-genre Chamaemorus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sous-genre Chamaemorus</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus chamaemorus — ronce des tourbières
 Rubus pseudochamaemorus
-Sous-genre Comaropsis
-Rubus geoides
-Sous-genre Cyclactis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Sous-genre Comaropsis</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Rubus geoides</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sous-genre Cyclactis</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus arcticus
 Rubus saxatilis
 Rubus fockeanus
@@ -1115,19 +1460,195 @@
 Rubus lasiococcus
 Rubus pedatus
 Rubus xanthocarpus
-Notho-sous-genre Cylobatus
-Rubus ×binatus
-Sous-genre Dalibardastrum
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Notho-sous-genre Cylobatus</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Rubus ×binatus</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sous-genre Dalibardastrum</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus amphidasys
 Rubus nepalensis
 Rubus tricolor
 Rubus tsangiorum
-Sous-genre Diemenicus
-Rubus gunnianus
-Sous-genre Eubatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sous-genre Diemenicus</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Rubus gunnianus</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sous-genre Eubatus</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus allegheniensis
 Rubus fruticosus
-Sous-genre Idaeobatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sous-genre Idaeobatus</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Rubus idaeus (framboisier), Rubus phoenicolasius et Rubus spectabilis
 Rubus idaeus — Framboisier rouge
 Rubus illecebrosus
@@ -1198,9 +1719,79 @@
 Rubus trianthus
 Rubus trifidus
 Rubus vernus
-Notho-sous-genre Idaeorubus
-Rubus ×loganobaccus — Mûre de Logan
-Sous-genre Lampobatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Notho-sous-genre Idaeorubus</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Rubus ×loganobaccus — Mûre de Logan</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sous-genre Lampobatus</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus turquinensis
 Rubus trichomallus
 Rubus shankii
@@ -1229,7 +1820,43 @@
 Rubus bogotensis
 Rubus betonicifolius
 Rubus adenothallus
-Sous-genre Malachobatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sous-genre Malachobatus</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus acuminatus
 Rubus alceifolius — Vigne marronne
 Rubus assamensis
@@ -1267,20 +1894,169 @@
 Rubus tiliaceus
 Rubus wardii
 Rubus xanthoneurus
-Sous-genre Micranthobatus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sous-genre Micranthobatus</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus australis
 Rubus cissoides
 Rubus parvus
 Rubus schmidelioides
 Rubus squarrosus
-Sous-genre Orobatus
-Rubus loxensis
-Sous-genre Rubus
-Section Allegheniensis
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sous-genre Orobatus</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Rubus loxensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Section Allegheniensis</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus allegheniensis
 Rubus alumnus
 Rubus pennus
-Section Arguti
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Section Arguti</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus abactus
 Rubus andrewsianus
 Rubus argutus
@@ -1289,12 +2065,130 @@
 Rubus ostryifolius
 Rubus pensilvanicus
 Rubus recurvans
-Section Caesii
-Rubus caesius
-Section Canadenses
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Section Caesii</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Rubus caesius</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Section Canadenses</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus canadensis
 Rubus kennedyanus
-Section Corylifolii
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Section Corylifolii</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus adenoleucus
 Rubus aureolus
 Rubus babingtonianus
@@ -1315,18 +2209,173 @@
 Rubus seebergensis
 Rubus tuberculatus
 Rubus wahlbergii
-Section Cuneifolii
-Rubus cuneifolius
-Section Flagellares
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Section Cuneifolii</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Rubus cuneifolius</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Section Flagellares</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus arundelanus
 Rubus biformispinus
 Rubus deamii
 Rubus enslenii
 Rubus flagellaris
-Section Hispidi
-Rubus hispidus
-Section Rubus
-Soit la section Rubus fruticosus agg. (Ronce commune) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Section Hispidi</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Rubus hispidus</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Section Rubus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soit la section Rubus fruticosus agg. (Ronce commune) :
 Rubus acheruntinus
 Rubus adornatus
 Rubus adspersus
@@ -1446,7 +2495,47 @@
 Rubus vestitus
 Rubus vigorosus
 Rubus vulgaris
-Section Setosi
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Section Setosi</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus glandicaulis
 Rubus missouricus
 Rubus notatus
@@ -1454,9 +2543,87 @@
 Rubus setosus
 Rubus stipulatus
 Rubus vermontanus
-Section Ursini
-Rubus ursinus
-Section Verotriviales
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Section Ursini</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Rubus ursinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rubus</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rubus</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Classification systématique</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Sous-genre Rubus</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Section Verotriviales</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Rubus lucidus
 Rubus riograndis
 Rubus trivialis
